--- a/data/income_statement/3digits/total/257_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/257_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>257-Manufacture of cutlery, tools and general hardware</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>257-Manufacture of cutlery, tools and general hardware</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>2095504.81377</v>
@@ -962,31 +868,36 @@
         <v>4205557.63813</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4579649.04009</v>
+        <v>4629913.703989999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5367911.99992</v>
+        <v>5523928.93717</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>6089226.540569999</v>
+        <v>6377980.209049999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>7079880.38295</v>
+        <v>7132132.17099</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>8912239.142359998</v>
+        <v>8912239.14236</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>11925728.13132</v>
+        <v>11940844.17715</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>13436839.76012</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13614896.47752</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>16620901.421</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1557124.46144</v>
@@ -1001,31 +912,36 @@
         <v>3271440.98174</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3607349.31723</v>
+        <v>3614001.27455</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4145130.74568</v>
+        <v>4265102.28808</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4853287.16281</v>
+        <v>5039232.23914</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5593837.663149999</v>
+        <v>5643716.91666</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>6953414.69007</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>8756998.711040001</v>
+        <v>8771492.705</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>9913404.992139999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>10067667.95533</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>12534548.446</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>515287.59065</v>
@@ -1034,37 +950,42 @@
         <v>639517.93251</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>843758.93621</v>
+        <v>843758.9362100001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>892906.5579800002</v>
+        <v>892906.55798</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>928073.5035200001</v>
+        <v>971563.89776</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1168192.17748</v>
+        <v>1203239.03498</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1169061.64127</v>
+        <v>1271335.3824</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1401323.17569</v>
+        <v>1403408.39079</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>1847518.17725</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>3031633.00609</v>
+        <v>3032250.64974</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3354639.12391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3377056.0261</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3887468.755</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>23092.76168</v>
@@ -1079,31 +1000,36 @@
         <v>41210.09841</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>44226.21934</v>
+        <v>44348.53168</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>54589.07675999999</v>
+        <v>55587.61411</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>66877.73649</v>
+        <v>67412.58751000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>84719.54411</v>
+        <v>85006.86353999999</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>111306.27504</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>137096.41419</v>
+        <v>137100.82241</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>168795.64407</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>170172.49609</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>198884.22</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>153970.95636</v>
@@ -1115,34 +1041,39 @@
         <v>257093.79375</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>310529.8464399999</v>
+        <v>310529.84644</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>204118.09194</v>
+        <v>204186.68398</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>190912.8832</v>
+        <v>207771.47457</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>230089.71569</v>
+        <v>259800.3631</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>305212.24319</v>
+        <v>306937.75173</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>382666.0447</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>529178.1636199999</v>
+        <v>529178.3486200001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>465575.16749</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>468451.51108</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>594044.831</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>34269.42746</v>
@@ -1151,37 +1082,42 @@
         <v>34309.26499</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>45204.14254</v>
+        <v>45204.14253999999</v>
       </c>
       <c r="F10" s="48" t="n">
         <v>75723.6666</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>70100.71570999999</v>
+        <v>70150.75096999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>55679.50699</v>
+        <v>62661.60062</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>67739.4635</v>
+        <v>79045.01237000001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>85372.64342000001</v>
+        <v>86479.27157</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>110272.67512</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>167704.27739</v>
+        <v>167704.46239</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>139953.76801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>141525.2996</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>215038.463</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>118176.07257</v>
@@ -1199,28 +1135,33 @@
         <v>129066.7292</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>127764.59491</v>
+        <v>137486.74622</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>154724.94949</v>
+        <v>172963.63463</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>207529.75014</v>
+        <v>208148.63053</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>256437.65908</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>325650.20836</v>
+        <v>325650.2083599999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>297883.73379</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>299156.74264</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>339681.771</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1525.45633</v>
@@ -1235,13 +1176,13 @@
         <v>2914.69505</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>4950.647029999999</v>
+        <v>4969.20381</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>7468.7813</v>
+        <v>7623.12773</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>7625.3027</v>
+        <v>7791.716100000001</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>12309.84963</v>
@@ -1250,16 +1191,21 @@
         <v>15955.7105</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>35823.67787</v>
+        <v>35823.67787000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>27737.66569</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>27769.46884</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>39324.597</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1941533.85741</v>
@@ -1271,34 +1217,39 @@
         <v>3451273.46365</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3895027.791689999</v>
+        <v>3895027.79169</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4375530.94815</v>
+        <v>4425727.02001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>5176999.116719999</v>
+        <v>5316157.462599999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5859136.82488</v>
+        <v>6118179.84595</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>6774668.139760001</v>
+        <v>6825194.41926</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>8529573.09766</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>11396549.9677</v>
+        <v>11411665.82853</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>12971264.59263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>13146444.96644</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>16026856.59</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1512312.63547</v>
@@ -1313,31 +1264,36 @@
         <v>3053410.53777</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3422329.70849</v>
+        <v>3455045.49164</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>4030408.8542</v>
+        <v>4121853.9569</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4499755.55495</v>
+        <v>4679108.645</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>5208895.1456</v>
+        <v>5244180.96954</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>6567235.351480001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>8741435.5864</v>
+        <v>8754798.47827</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>10051097.47752</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>10199378.26514</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>12335648.397</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1191168.75588</v>
@@ -1352,70 +1308,80 @@
         <v>2401148.10465</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>2679011.07251</v>
+        <v>2711644.52354</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>3261523.39457</v>
+        <v>3348295.440140001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>3674410.28508</v>
+        <v>3840083.55036</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>4242867.15288</v>
+        <v>4262526.80709</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>5391348.36892</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>7227733.673629999</v>
+        <v>7230178.646619999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>8132145.159460001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>8236478.44807</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>10222084.733</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>293184.07626</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>348492.72621</v>
+        <v>348492.7262100001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>529313.33816</v>
+        <v>529313.3381599999</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>550181.8848</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>606837.3792000001</v>
+        <v>606919.7113199999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>607609.3219100001</v>
+        <v>611871.6264099999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>646644.84124</v>
+        <v>659988.02563</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>763746.8129100001</v>
+        <v>778678.13338</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>980852.63335</v>
+        <v>980852.6333499999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1262053.65707</v>
+        <v>1272558.70658</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1614894.15553</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1655477.74651</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1821634.087</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>20774.8563</v>
@@ -1424,40 +1390,45 @@
         <v>26867.11813</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>66537.59871000001</v>
+        <v>66537.59870999999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>82371.30628999999</v>
+        <v>82371.30629000001</v>
       </c>
       <c r="G17" s="48" t="n">
         <v>114651.85776</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>135906.1433</v>
+        <v>136105.88428</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>142904.63728</v>
+        <v>142965.18534</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>163901.87992</v>
+        <v>164590.2768</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>152776.1293</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>190766.63181</v>
+        <v>191159.6992</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>216818.30744</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>219938.106</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>204235.503</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>7184.947029999999</v>
+        <v>7184.94703</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>11749.8253</v>
@@ -1472,28 +1443,33 @@
         <v>21829.39902</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>25369.99442</v>
+        <v>25581.00607</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>35795.79135</v>
+        <v>36071.88367</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>38379.29989</v>
+        <v>38385.75227</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>42258.21991000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>60881.62389</v>
+        <v>60901.42587000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>87239.85509</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>87483.96456000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>87694.07399999999</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>429221.22194</v>
@@ -1505,37 +1481,42 @@
         <v>712242.7042899999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>841617.2539199999</v>
+        <v>841617.25392</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>953201.2396600001</v>
+        <v>970681.5283699998</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1146590.26252</v>
+        <v>1194303.5057</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1359381.26993</v>
+        <v>1439071.20095</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1565772.99416</v>
+        <v>1581013.44972</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1962337.74618</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2655114.3813</v>
+        <v>2656867.35026</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2920167.11511</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2947066.7013</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3691208.193</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>300802.4315600001</v>
+        <v>300802.43156</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>356802.84994</v>
@@ -1544,34 +1525,39 @@
         <v>425866.57646</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>512576.0963999999</v>
+        <v>512576.0964</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>597135.8580899999</v>
+        <v>600652.3803099999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>683364.61468</v>
+        <v>712437.8810699999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>770824.9024</v>
+        <v>822803.32816</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>921746.2098</v>
+        <v>930769.3701500001</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1087964.00953</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1295658.18944</v>
+        <v>1298109.14518</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1607690.52709</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1627292.67993</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1691898.062</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>3735.78501</v>
@@ -1580,7 +1566,7 @@
         <v>4022.46196</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>5313.073770000001</v>
+        <v>5313.07377</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>9296.8619</v>
@@ -1592,10 +1578,10 @@
         <v>8984.933720000001</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>10455.70016</v>
+        <v>10668.15768</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>9801.120929999997</v>
+        <v>9801.120929999999</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>12009.61364</v>
@@ -1604,13 +1590,18 @@
         <v>14907.39305</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>43364.70086</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>43382.35174000001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>38830.349</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>112630.47697</v>
@@ -1622,34 +1613,39 @@
         <v>159064.1671</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>197347.8516699999</v>
+        <v>197347.85167</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>213549.69835</v>
+        <v>213729.9698</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>232263.40061</v>
+        <v>249078.22247</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>266836.74977</v>
+        <v>296415.48569</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>339602.13506</v>
+        <v>346212.7814300001</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>410493.32452</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>469011.54513</v>
+        <v>469087.20767</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>529658.98683</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>533318.74774</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>539094.501</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>184436.16958</v>
@@ -1664,31 +1660,36 @@
         <v>305931.38283</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>375269.60612</v>
+        <v>378605.85689</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>442116.28035</v>
+        <v>454374.72488</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>493532.45247</v>
+        <v>515719.68479</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>572342.95381</v>
+        <v>574755.4677899999</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>665461.07137</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>811739.25126</v>
+        <v>814114.54446</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1034666.8394</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1050591.58045</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1113973.212</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>128418.79038</v>
@@ -1703,31 +1704,36 @@
         <v>329041.15752</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>356065.38157</v>
+        <v>370029.14806</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>463225.64784</v>
+        <v>481865.62463</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>588556.3675299999</v>
+        <v>616267.8727899999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>644026.7843600002</v>
+        <v>650244.0795699999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>874373.7366500001</v>
+        <v>874373.73665</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1359456.19186</v>
+        <v>1358758.20508</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1312476.58802</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1319774.02137</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1999310.131</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>114876.66002</v>
@@ -1742,31 +1748,36 @@
         <v>145805.48705</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>149905.56528</v>
+        <v>151058.94599</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>195318.99613</v>
+        <v>221130.88368</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>322935.1354799999</v>
+        <v>360218.47489</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>353585.70513</v>
+        <v>354079.65373</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>382175.98337</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>955470.2923799999</v>
+        <v>956268.90489</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>739300.24752</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>742193.27446</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1172555.145</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1775,7 +1786,7 @@
         <v>298.44837</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>477.90221</v>
+        <v>477.9022100000001</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>21.367</v>
@@ -1790,7 +1801,7 @@
         <v>367.24869</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>65.87345999999999</v>
+        <v>65.87346000000001</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>207.39508</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>390.1505</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>1989.869</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>55.5257</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>460.49414</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>4795.60263</v>
@@ -1859,31 +1880,36 @@
         <v>14099.86925</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>10897.00708</v>
+        <v>10910.24293</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>15401.12178</v>
+        <v>15669.65119</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>28939.49557</v>
+        <v>31090.31074</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>30760.03899</v>
+        <v>30857.99075</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>49840.96557</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>45740.41469999999</v>
+        <v>45772.67739</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>48264.47853999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>48983.8763</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>47963.985</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>237.21556</v>
@@ -1904,7 +1930,7 @@
         <v>296.40991</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>394.57906</v>
+        <v>419.4025</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>248.42949</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>1009.16912</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>737.76</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>2155.09947</v>
@@ -1940,13 +1971,13 @@
         <v>1126.93764</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1745.01245</v>
+        <v>1896.70531</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>3912.78706</v>
+        <v>3968.568379999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>5097.03793</v>
+        <v>5098.02793</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>3907.759430000001</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>5590.674980000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>6538.022</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1083.1494</v>
@@ -1982,25 +2018,30 @@
         <v>358.83373</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1306.65987</v>
+        <v>1366.3787</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>3291.61157</v>
+        <v>3292.05167</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>3055.98162</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>10954.8864</v>
+        <v>10958.1704</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>10475.27854</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>16263.636</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>89465.62226999999</v>
@@ -2015,31 +2056,36 @@
         <v>107328.77224</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>93979.09486000001</v>
+        <v>95117.11382</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>127384.85152</v>
+        <v>151800.30261</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>219742.92669</v>
+        <v>252239.5406</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>224766.23584</v>
+        <v>225143.87214</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>224530.817</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>759007.59774</v>
+        <v>759056.3893299999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>481699.66932</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>484029.78349</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>928234.469</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>29.98853</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>96051.29135000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>106240.304</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>117.34211</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>133.509</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>17054.45646</v>
@@ -2132,34 +2188,39 @@
         <v>22397.58822</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>25367.6431</v>
+        <v>25369.769</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>26913.90288</v>
+        <v>27890.11707</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>33743.64526999999</v>
+        <v>36239.23201</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>41686.23124</v>
+        <v>41703.16168</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>53172.30752</v>
+        <v>53172.30751999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>65113.8261</v>
+        <v>65828.10033</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>95241.69892</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>95085.21393000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>64453.591</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>91259.60917000001</v>
+        <v>91259.60916999998</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>119400.05847</v>
@@ -2171,34 +2232,39 @@
         <v>109492.12687</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>189301.3685</v>
+        <v>189478.47565</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>169103.05519</v>
+        <v>203923.8963</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>293019.50187</v>
+        <v>354050.11148</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>371441.35509</v>
+        <v>371947.31784</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>375859.94752</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1049877.87581</v>
+        <v>1050058.99918</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>655384.2371199999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>657572.7545299999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1020896.038</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>884.9393200000001</v>
+        <v>884.93932</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>1233.88065</v>
@@ -2207,19 +2273,19 @@
         <v>636.4761699999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>616.1148700000001</v>
+        <v>616.11487</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1595.7024</v>
+        <v>1602.02254</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>2056.37601</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1641.04971</v>
+        <v>1711.84254</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2271.77845</v>
+        <v>2292.87023</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>3590.764650000001</v>
@@ -2228,13 +2294,18 @@
         <v>6074.152529999999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>7310.532050000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>7310.883380000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>6932.302</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>9149.155839999999</v>
@@ -2249,13 +2320,13 @@
         <v>9864.987570000001</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>7320.25759</v>
+        <v>7320.257590000001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>16396.6227</v>
+        <v>16604.4145</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>9911.9432</v>
+        <v>10001.33806</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>14485.80111</v>
@@ -2264,16 +2335,21 @@
         <v>17076.7143</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>29509.29993</v>
+        <v>29623.6229</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>24717.60758</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>9059.764999999999</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>28.76637</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>3312.58857</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>6133.747</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>71468.18667</v>
@@ -2324,34 +2405,39 @@
         <v>132911.86182</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>90706.03051</v>
+        <v>90706.03051000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>151963.47559</v>
+        <v>152134.198</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>117217.30153</v>
+        <v>151830.35084</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>232214.73536</v>
+        <v>292923.27132</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>290529.921</v>
+        <v>290864.3450499999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>291000.01691</v>
+        <v>291000.0169099999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>904933.66688</v>
+        <v>904991.46393</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>502378.28264</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>504491.72378</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>864461.4449999999</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>1953.65701</v>
@@ -2378,19 +2464,24 @@
         <v>44821.99105</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>46862.64557</v>
+        <v>46862.64556999999</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>60324.53863</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>98205.13258000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>98205.13258</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>119455.615</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,14 +2516,19 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>7774.903959999999</v>
+        <v>7774.903960000001</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>7738.31383</v>
@@ -2441,40 +2537,45 @@
         <v>9629.70335</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>7541.985470000001</v>
+        <v>7541.98547</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>10758.30739</v>
+        <v>10758.37199</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>8739.292140000001</v>
+        <v>8739.29214</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>12412.72171</v>
+        <v>12574.60767</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>19073.93685</v>
+        <v>19224.38377</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>16087.07492</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>35182.27839</v>
+        <v>35191.28174</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>19460.0937</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>19534.81864</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>14853.164</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>81212.03416000001</v>
+        <v>81212.03416</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>72669.01459999999</v>
+        <v>72669.01460000001</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>115552.7777</v>
@@ -2483,37 +2584,42 @@
         <v>106845.48957</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>126168.30805</v>
+        <v>126239.68814</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>142038.30909</v>
+        <v>150054.47807</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>214472.31563</v>
+        <v>230367.5293</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>263640.30327</v>
+        <v>264797.79649</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>294996.38813</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>506949.99056</v>
+        <v>507003.48099</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>462878.8400499999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>465461.48602</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>403300.727</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>65451.56744</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>49225.93617</v>
+        <v>49225.93616999999</v>
       </c>
       <c r="E45" s="48" t="n">
         <v>79547.21244999999</v>
@@ -2522,31 +2628,36 @@
         <v>96534.30636</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>107615.1393</v>
+        <v>107632.36011</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>124411.6279</v>
+        <v>132349.111</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>156797.66433</v>
+        <v>172084.09017</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>204315.27536</v>
+        <v>205466.60976</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>247670.1235200001</v>
+        <v>247670.12352</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>427203.0632</v>
+        <v>427256.55363</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>428176.47593</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>430679.47038</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>377185.405</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>15760.46672</v>
@@ -2561,16 +2672,16 @@
         <v>10311.18321</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>18553.16875</v>
+        <v>18607.32803</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>17626.68119</v>
+        <v>17705.36707</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>57674.6513</v>
+        <v>58283.43913000001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>59325.02791</v>
+        <v>59331.18672999999</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>47326.26461</v>
@@ -2579,13 +2690,18 @@
         <v>79746.92736</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>34702.36412000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>34782.01564</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>26115.322</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>70823.80707</v>
@@ -2600,31 +2716,36 @@
         <v>258509.02813</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>190501.2703</v>
+        <v>205369.93026</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>347403.27969</v>
+        <v>349018.13394</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>403999.68551</v>
+        <v>392068.7069</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>362530.83113</v>
+        <v>367578.61897</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>585693.38437</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>758098.6178699998</v>
+        <v>757964.6298</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>933513.7583700001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>938933.05528</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1747668.511</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>10467.72798</v>
@@ -2639,37 +2760,42 @@
         <v>30563.53905</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>38704.41745</v>
+        <v>38734.81015</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>60439.27778</v>
+        <v>61552.2306</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>169769.33783</v>
+        <v>170807.80887</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>146123.36563</v>
+        <v>146329.66466</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>83770.99940999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>120269.11199</v>
+        <v>120443.89381</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>236531.35972</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>237495.57525</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>118651.881</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>248.43744</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>98.10929999999999</v>
+        <v>98.1093</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>154.90463</v>
@@ -2684,7 +2810,7 @@
         <v>124.13446</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>816.9345699999999</v>
+        <v>816.9345700000001</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>484.49222</v>
@@ -2696,13 +2822,18 @@
         <v>1099.22264</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>2595.9006</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>2613.8832</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>546.669</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>10219.29054</v>
@@ -2717,37 +2848,42 @@
         <v>30444.77967</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>38162.16242</v>
+        <v>38192.55512</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>60315.14332</v>
+        <v>61428.09614000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>168952.40326</v>
+        <v>169990.8743</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>145638.87341</v>
+        <v>145845.17244</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>82611.38871000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>119169.88935</v>
+        <v>119344.67117</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>233935.45912</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>234881.69205</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>118105.212</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>165297.45888</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>29279.02644999999</v>
+        <v>29279.02645</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>112785.84962</v>
@@ -2756,37 +2892,42 @@
         <v>44336.22362</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>66973.00628</v>
+        <v>66999.18865</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>79838.42291999998</v>
+        <v>81088.39056999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>38917.21974</v>
+        <v>40001.0907</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>126803.45789</v>
+        <v>126935.94342</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>68615.58678</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>133800.839</v>
+        <v>133929.18515</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>112890.32865</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>114918.23475</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>100080.111</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>1578.39143</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>886.84032</v>
+        <v>886.8403199999999</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>1125.00267</v>
@@ -2813,13 +2954,18 @@
         <v>8199.338299999999</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>21029.55825</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>21030.61357</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>28230.487</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1851.62836</v>
@@ -2849,16 +2995,21 @@
         <v>14654.54727</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>4416.145310000001</v>
+        <v>4426.83322</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2828.66078</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2848.13804</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1760.844</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>161867.43909</v>
@@ -2873,34 +3024,39 @@
         <v>38071.84935</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>57080.08444999999</v>
+        <v>57106.26682</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>68622.58772999998</v>
+        <v>69872.55537999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>27757.36593</v>
+        <v>28841.23689</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>103509.75748</v>
+        <v>103642.24301</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>43313.66272</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>121185.35539</v>
+        <v>121303.01363</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>89032.10962</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>91039.48313999998</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>70088.78</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-84005.92383000001</v>
+        <v>-84005.92383</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>149746.89462</v>
@@ -2912,31 +3068,36 @@
         <v>244736.34356</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>162232.68147</v>
+        <v>177105.55176</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>328004.13455</v>
+        <v>329481.9739700001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>534851.8036</v>
+        <v>522875.4250700001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>381850.73887</v>
+        <v>386972.3402100001</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>600848.797</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>744566.8908600002</v>
+        <v>744479.3384599999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1057154.78944</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1061510.39578</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1766240.281</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>18672.70956</v>
@@ -2951,31 +3112,36 @@
         <v>48016.47697</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>52263.44840000001</v>
+        <v>55133.19633</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>61959.55273999999</v>
+        <v>62070.87947</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>76072.24243</v>
+        <v>78673.75382</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>73207.92420000001</v>
+        <v>74299.54109999999</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>99753.19897999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>134875.99558</v>
+        <v>135264.68228</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>159176.89221</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>160864.3772</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>249545.238</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-102678.63339</v>
@@ -2990,28 +3156,31 @@
         <v>196719.86659</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>109969.23307</v>
+        <v>121972.35543</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>266044.58181</v>
+        <v>267411.0945</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>458779.5611700001</v>
+        <v>444201.67125</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>308642.8146699999</v>
+        <v>312672.79911</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>501095.59802</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>609690.8952799999</v>
+        <v>609214.65618</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>897977.89723</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>900646.0185799999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1516695.043</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>954</v>
@@ -3044,28 +3216,31 @@
         <v>1199</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1634</v>
+        <v>1638</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1728</v>
+        <v>1736</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1732</v>
+        <v>1748</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1775</v>
+        <v>1785</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1850</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1815</v>
+        <v>1951</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2066</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>